--- a/medicine/Psychotrope/Timmermans_(brasserie)/Timmermans_(brasserie).xlsx
+++ b/medicine/Psychotrope/Timmermans_(brasserie)/Timmermans_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brasserie Timmermans anciennement connu sous le nom de la pêchemin est la plus ancienne brasserie de lambic au monde[1], établie à Itterbeek, section de la commune belge de Dilbeek dans la province du Brabant flamand, à quelques kilomètres du centre de Bruxelles.
+La brasserie Timmermans anciennement connu sous le nom de la pêchemin est la plus ancienne brasserie de lambic au monde, établie à Itterbeek, section de la commune belge de Dilbeek dans la province du Brabant flamand, à quelques kilomètres du centre de Bruxelles.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Timmermans est active depuis 1702, époque où elle était connue sous le nom de « Brasserie de la Taupe ».
 Membre de la Martin's Finest Beer Selection d'Anthony Martin depuis 1993, Timmermans ne brasse que le lambic traditionnel, la bière issue de la fermentation spontanée utilisée dans toute la gamme. Le brassage du lambic, sans levure ajoutée, est basé sur une recette ancestrale.
 Le lambic survit grâce à une poignée de brasseries bruxelloises et brabançonnes et à la présence de deux micro-organismes qui n'existent que dans la vallée de la Senne et le Pajottenland[réf. nécessaire] : le Brettanomyces bruxellensis et le Brettanomyces lambicus.
-L'ajout de fruits et d'épices, enfin, permet de donner des saveurs particulières : Strawberry, Kriek[2], Pêche, Framboise, mais aussi la Oude Gueuze, la Kriek Retro, la Oude Kriek, la Warme Kriek Chaude, la Gueuze, la Faro ou la Lambicus Blanche.
+L'ajout de fruits et d'épices, enfin, permet de donner des saveurs particulières : Strawberry, Kriek, Pêche, Framboise, mais aussi la Oude Gueuze, la Kriek Retro, la Oude Kriek, la Warme Kriek Chaude, la Gueuze, la Faro ou la Lambicus Blanche.
 À noter que c'est également sur ce site qu'a été brassée la fameuse bière « Bourgogne des Flandres » de Bruges. Développée par la famille Van Houtryve depuis 1765, le brassage de cette bière est de nouveau réalisé dans le centre historique de Bruges depuis novembre 2015 et la création de la Brasserie Bourgogne des Flandres.
 La brasserie fait partie de l'association brassicole Belgian Family Brewers.
 </t>
@@ -548,7 +562,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Timmermans Gueuze Lambic, une blonde à fermentation spontanée, 5 % d’alcool.
 Timmermans Oude Gueuze, bière à fermentation spontanée, 6,7 % d’alcool.
